--- a/model/results/mix3_ggpos_h2pos/v_mix.xlsx
+++ b/model/results/mix3_ggpos_h2pos/v_mix.xlsx
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13930696.85200286</v>
+        <v>13930696.85200305</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>23135421.13435365</v>
+        <v>22226803.62154198</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3090066.051020382</v>
+        <v>3090066.051020412</v>
       </c>
     </row>
     <row r="5">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12867438.1768705</v>
+        <v>12867438.1768708</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4091382.487188114</v>
+        <v>5000000</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13930696.85200289</v>
+        <v>13930696.85200305</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19726803.6215418</v>
+        <v>19726803.62154198</v>
       </c>
     </row>
     <row r="4">
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3090066.051020386</v>
+        <v>3090066.051020407</v>
       </c>
     </row>
     <row r="5">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12867438.17687055</v>
+        <v>12867438.1768708</v>
       </c>
     </row>
     <row r="7">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13930696.85200289</v>
+        <v>13930696.85200297</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19726803.62154181</v>
+        <v>19726803.62154189</v>
       </c>
     </row>
     <row r="4">
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3090066.051020388</v>
+        <v>3090066.0510204</v>
       </c>
     </row>
     <row r="5">
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12867438.17687056</v>
+        <v>12867438.17687068</v>
       </c>
     </row>
     <row r="7">
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13930696.85200292</v>
+        <v>13930696.85200297</v>
       </c>
     </row>
     <row r="3">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19726803.62154184</v>
+        <v>19726803.62154189</v>
       </c>
     </row>
     <row r="4">
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3090066.051020392</v>
+        <v>3090066.0510204</v>
       </c>
     </row>
     <row r="5">
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12867438.17687061</v>
+        <v>12867438.17687068</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13930696.85200305</v>
+        <v>13930696.85200293</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19726803.62154198</v>
+        <v>19726803.62154184</v>
       </c>
     </row>
     <row r="4">
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3090066.051020411</v>
+        <v>3090066.051020393</v>
       </c>
     </row>
     <row r="5">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12867438.17687081</v>
+        <v>12867438.17687061</v>
       </c>
     </row>
     <row r="7">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14394809.16681787</v>
+        <v>14394809.16681779</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14384186.67709754</v>
+        <v>14384186.67709744</v>
       </c>
     </row>
     <row r="4">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1376981.328798192</v>
+        <v>1376981.328798179</v>
       </c>
     </row>
     <row r="5">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925926</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12867438.17687081</v>
+        <v>12867438.17687068</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14394809.16681741</v>
+        <v>14394809.16681783</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>9384186.677097017</v>
+        <v>9384186.677097492</v>
       </c>
     </row>
     <row r="4">
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1376981.328798121</v>
+        <v>1376981.328798186</v>
       </c>
     </row>
     <row r="5">
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925926</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12867438.1768701</v>
+        <v>12867438.17687075</v>
       </c>
     </row>
     <row r="7">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14394809.16681735</v>
+        <v>14394809.16681783</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4384186.677096941</v>
+        <v>4384186.677097494</v>
       </c>
     </row>
     <row r="4">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1376981.328798111</v>
+        <v>1376981.328798186</v>
       </c>
     </row>
     <row r="5">
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925926</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12867438.17687</v>
+        <v>12867438.17687075</v>
       </c>
     </row>
     <row r="7">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7499999.999999996</v>
+        <v>7500000</v>
       </c>
       <c r="C7" t="n">
         <v>15000000</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14394809.16681735</v>
+        <v>14394809.16681783</v>
       </c>
     </row>
     <row r="3">
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1376981.328798111</v>
+        <v>1376981.328798186</v>
       </c>
     </row>
     <row r="5">
@@ -1491,10 +1491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925926</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12867438.17687</v>
+        <v>12867438.17687075</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>7500000</v>
       </c>
       <c r="C7" t="n">
-        <v>19384186.67709693</v>
+        <v>19384186.67709749</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14394809.16681735</v>
+        <v>14394809.16681784</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1376981.328798111</v>
+        <v>1376981.328798186</v>
       </c>
     </row>
     <row r="5">
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925926</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12867438.17687</v>
+        <v>12867438.17687075</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>7500000</v>
       </c>
       <c r="C7" t="n">
-        <v>19384186.67709693</v>
+        <v>19384186.6770975</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10632587.49999999</v>
+        <v>10632587.5</v>
       </c>
     </row>
     <row r="4">
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18922657.27777777</v>
+        <v>18922657.27777778</v>
       </c>
     </row>
     <row r="5">
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14394809.16681718</v>
+        <v>14394809.16681784</v>
       </c>
     </row>
     <row r="3">
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1376981.328798085</v>
+        <v>1376981.328798186</v>
       </c>
     </row>
     <row r="5">
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925926</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12867438.17686974</v>
+        <v>12867438.17687075</v>
       </c>
     </row>
     <row r="7">
@@ -1847,7 +1847,7 @@
         <v>7500000</v>
       </c>
       <c r="C7" t="n">
-        <v>19384186.67709674</v>
+        <v>19384186.6770975</v>
       </c>
     </row>
   </sheetData>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18922657.27777777</v>
+        <v>18922657.27777778</v>
       </c>
     </row>
     <row r="5">
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18922657.27777777</v>
+        <v>18922657.27777778</v>
       </c>
     </row>
     <row r="5">
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6615330.382222218</v>
+        <v>6615330.382222219</v>
       </c>
     </row>
     <row r="4">
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13421333.77037035</v>
+        <v>13298704.05629629</v>
       </c>
     </row>
     <row r="3">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12908590.87777777</v>
+        <v>12724642.8066579</v>
       </c>
     </row>
     <row r="4">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>16742188.61111111</v>
+        <v>15822469.25556432</v>
       </c>
     </row>
     <row r="5">
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12083802.66666669</v>
+        <v>12083802.66666667</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13421333.77037037</v>
+        <v>13298704.05629628</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>20685049.21111111</v>
+        <v>14547076.86222222</v>
       </c>
     </row>
     <row r="4">
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>8965730.27777778</v>
+        <v>14000035.2</v>
       </c>
     </row>
     <row r="5">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12083802.66666669</v>
+        <v>12083802.66666667</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13930696.85200287</v>
+        <v>13930696.85200305</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>21272775.84376398</v>
+        <v>21272775.84376421</v>
       </c>
     </row>
     <row r="4">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>9044093.828798164</v>
+        <v>9044093.82879819</v>
       </c>
     </row>
     <row r="5">
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12867438.17687053</v>
+        <v>12867438.1768708</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13930696.85200286</v>
+        <v>13930696.85200305</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27226803.62154176</v>
+        <v>27226803.62154198</v>
       </c>
     </row>
     <row r="4">
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3090066.051020388</v>
+        <v>3090066.051020412</v>
       </c>
     </row>
     <row r="5">
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12867438.17687053</v>
+        <v>12867438.1768708</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
